--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,6 +568,9 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -645,13 +645,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -675,7 +669,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -764,8 +758,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -780,6 +774,13 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -790,6 +791,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>effectiveDateTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -864,10 +868,6 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
@@ -893,13 +893,6 @@
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-test-result</t>
   </si>
   <si>
-    <t>valueDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1005,6 +998,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1383,6 +1379,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1552,21 +1554,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1920,7 +1907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2037,7 +2024,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2154,7 +2141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2269,7 +2256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2386,7 +2373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2503,7 +2490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2620,7 +2607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2737,7 +2724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2854,7 +2841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -2973,7 +2960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -3090,7 +3077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3207,7 +3194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -3324,7 +3311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>173</v>
       </c>
@@ -3371,7 +3358,7 @@
         <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>80</v>
@@ -3386,13 +3373,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3425,27 +3412,27 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3468,19 +3455,19 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3508,10 +3495,10 @@
         <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3529,7 +3516,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3553,22 +3540,22 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3587,19 +3574,19 @@
         <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3624,14 +3611,12 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3648,7 +3633,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>89</v>
@@ -3663,27 +3648,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AO16" t="s" s="2">
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>210</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3691,7 +3676,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>89</v>
@@ -3706,19 +3691,19 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3767,7 +3752,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3782,27 +3767,27 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3825,16 +3810,16 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3884,7 +3869,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3905,29 +3890,29 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
@@ -3942,19 +3927,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4003,7 +3988,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4018,35 +4003,35 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>89</v>
@@ -4061,19 +4046,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4110,19 +4095,17 @@
         <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4137,35 +4120,37 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>89</v>
@@ -4180,18 +4165,20 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4239,7 +4226,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4254,27 +4241,27 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4285,7 +4272,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4297,18 +4284,18 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4356,13 +4343,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4371,27 +4358,27 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4402,7 +4389,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4414,19 +4401,17 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4463,56 +4448,56 @@
         <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4524,7 +4509,7 @@
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4533,19 +4518,19 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4570,29 +4555,29 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4601,7 +4586,7 @@
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4610,27 +4595,27 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
@@ -4643,7 +4628,7 @@
         <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4652,19 +4637,19 @@
         <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4689,13 +4674,11 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4713,7 +4696,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4722,7 +4705,7 @@
         <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4731,24 +4714,24 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4771,19 +4754,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4808,14 +4791,14 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4832,7 +4815,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4841,7 +4824,7 @@
         <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>101</v>
@@ -4856,22 +4839,22 @@
         <v>132</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4890,19 +4873,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -4927,14 +4910,14 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4951,7 +4934,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4969,24 +4952,24 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO27" t="s" s="2">
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>304</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5009,19 +4992,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5070,7 +5053,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5091,21 +5074,21 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5128,16 +5111,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5163,7 +5146,7 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>317</v>
@@ -5187,7 +5170,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5220,7 +5203,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>323</v>
       </c>
@@ -5245,7 +5228,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>324</v>
@@ -5282,7 +5265,7 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="X30" t="s" s="2">
         <v>328</v>
@@ -5339,7 +5322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>332</v>
       </c>
@@ -5456,7 +5439,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>341</v>
       </c>
@@ -5573,7 +5556,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>350</v>
       </c>
@@ -5692,7 +5675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>359</v>
       </c>
@@ -5807,7 +5790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>365</v>
       </c>
@@ -5924,7 +5907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>368</v>
       </c>
@@ -6043,7 +6026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>373</v>
       </c>
@@ -6158,7 +6141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>380</v>
       </c>
@@ -6273,7 +6256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>384</v>
       </c>
@@ -6298,7 +6281,7 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>385</v>
@@ -6383,7 +6366,7 @@
         <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6392,7 +6375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>393</v>
       </c>
@@ -6417,7 +6400,7 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>394</v>
@@ -6454,7 +6437,7 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>398</v>
@@ -6502,7 +6485,7 @@
         <v>392</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6511,7 +6494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>400</v>
       </c>
@@ -6628,7 +6611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>406</v>
       </c>
@@ -6743,7 +6726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>410</v>
       </c>
@@ -6860,7 +6843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>417</v>
       </c>
@@ -6977,7 +6960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>423</v>
       </c>
@@ -7096,7 +7079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>430</v>
       </c>
@@ -7211,7 +7194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>431</v>
       </c>
@@ -7328,7 +7311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>432</v>
       </c>
@@ -7447,7 +7430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>433</v>
       </c>
@@ -7472,7 +7455,7 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>434</v>
@@ -7484,7 +7467,7 @@
         <v>436</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7509,13 +7492,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>203</v>
+        <v>437</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>204</v>
+        <v>438</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7551,24 +7534,24 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN49" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7591,19 +7574,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7652,7 +7635,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7670,24 +7653,24 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7710,19 +7693,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7747,14 +7730,14 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="X51" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="X51" t="s" s="2">
+      <c r="Y51" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7771,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7780,7 +7763,7 @@
         <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>101</v>
@@ -7795,7 +7778,7 @@
         <v>132</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7804,13 +7787,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7829,19 +7812,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7866,14 +7849,14 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7890,7 +7873,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7908,24 +7891,24 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>304</v>
-      </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7951,10 +7934,10 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>354</v>
@@ -8009,7 +7992,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8043,24 +8026,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-test-results</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-test-results</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -645,7 +645,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-test-types</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -890,7 +890,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-test-result</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-test-result</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1763,7 +1763,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.94921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-test-results</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-test-results</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -645,7 +645,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-test-types</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -890,7 +890,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-test-result</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-test-result</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1763,7 +1763,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.55078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.94921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -824,7 +824,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-test-results.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-test-results.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
